--- a/Tweet_Listesi.xlsx
+++ b/Tweet_Listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erenMustafaOzdal\Desktop\TAİHL - Bot Yazma Eğitimi\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAD0288-6045-4C3A-84D1-A6D9A99C7D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE61238-DFDA-46F9-A0F5-F48B02A2C882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,273 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
-  <si>
-    <t xml:space="preserve"> Ömrün ilk yarısı; ikinci yarısını beklemekle, ikinci yarısı da ilk yarısının hasretiyle geçer. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bir insanın nasıl güldüğünden terbiyesini, neye güldüğünden akıl seviyesini anlarsın. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nereye gittiğini bilmiyorsan, hangi yoldan gittiğinin hiçbir önemi yoktur. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dünya bir gök kuşağı, zihin bir prizma ve varlık ise beyaz bir ışındır. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hayatta en değerli olan zamandır. Kime hediye ettiğine dikkat et. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Her ağlayan güçsüz değildir. Tıpkı her gülenin mutlu olmadığı gibi. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> İnsanların seni en çok sevdiği zaman, onların işine en çok yaradığın zamandır. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Neyi feda edersen, o sana ihsan edilir. Neye kıyamazsan, onunla sınanırsın. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Belki hiçbir şey yolunda gitmedi; ama hiç bir şey de beni yolumdan etmedi! INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bir evin bütün camlarını kırıp sonra da kapısını çalamazsın. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mutluluk yaşadığın hayat tarzında değil, hayata bakış tarzındadır. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Uçmayı seviyorsan, düşmeyi de bileceksin. Korkarak yaşıyorsan, yalnızca hayatı seyredersin… INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> İki yüzlü insanın; Dilinde tat, kalbinde fesat gizlidir! INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Güven bir ayna gibidir. Bir kez çatladı mı, hep çizik gösterir. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yarım nefeslik bu hayatta. Sevgiden başka hiçbir şey planlama... INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Herkese içindeki iyilik kadar iyi bir hayat dilerim. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hakkını helal et dememe bakma sen... Hayatını haram edene hak helal edilir mi hiç. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sende, ben, imkansızlığı seviyorum; fakat asla ümitsizliği değil. (Nazım Hikmet) INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gönül almayı bilmeyene ömür emanet edilmez. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terk etmek kolaysa senin için, el sallamak zor değil benim için! INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sevmek zaman ayırmaktır. Boş zamanları doldurmak değil... INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aradığın seni arayandır. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bir kuş bile nasibi kadar kanat çırpar gökyüzünde. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ben yalnızca sevdiklerimden korkarım. Çünkü beni sadece onlar incitebilirler. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Güzeli güzel yapan edeptir, edep ise güzeli sevmeye sebeptir! INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hayaller size gücünüzün olduğunu gösterir. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terbiyesiz bir insana verilebilecek en dokunaklı ceza, bozmadığınız efendiliğinizdir. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bazen ilk görüşte bilirsin, o insan senin kaderindir. Bazen bir ömür ararsın, bulunmaz. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pişman değilim. Sadece dön bak arkana... Ne için nelerden vazgeçtin. Neler dururken neyi seçtin. (Nazım Hikmet) INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yorma kendini... Bırak hayatına eşlik etmek isteyenler seninle gelsin. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Benim sevdiğim renk senin gözlerinde kaldı. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> İnsan, evrende gövdesi kadar değil, yüreği kadar yer kaplar. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kime ne emanet ettiysek, ya kırdı, yada kaybetti. Anladım ki emanete en güzel bakan "ALLAH" idi. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zihin fukara olunca akıl ukala olurmuş. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bir insanın, bir insana verebileceği en güzel hediye; ona ayırabileceği zamandır. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Umudunu yitirme, Şu hayatta bir şeyin bitişi, her zaman başka bir şeyin başlamasına sebep olmuştur. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yanlış bildiğin yolda; herkesle yürüyeceğine, doğru bildiğin yolda; tek başına yürü. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hepimiz karanlık içerisindeyiz ancak bazılarımız yıldızlara bakmayı akıl edebiliyor. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bazen en sıradan şeyler bile, doğru kişi ile birlikte yapıldığında sıra dışı olur. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> İnsan terbiyesi öfkeli iken belli olur, insan olan tartışırken bile saygısını korur. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aşk rüzgar gibidir, göremezsin ama hissedebilirsin. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bir DUA'mız var bir de duyanımız... Gerisi çok da mühim değil! INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ne istediğin ile ne yapabileceğin arasındaki farkı ancak kendinden vazgeçtiğinde INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t>kapatabilirsin. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ben seni susayacak kadar, ben sana susayacak kadar, ben seni beni susturacak kadar sevdim. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Onu bir daha görmeyi umuyordu. Her şeye razıydı. Eskisi gibi olmayacak bile olsa 
-onunla oturmaya, onu dinlemeye ve onunla konuşmaya can atıyordu. Fakat kapı bir 
-daha asla açılmadı. (Momo) INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sev ve daha derinden sev. Acı çek ve daha derinden acı çek. Tümüyle sev ve tümüyle 
-acı çek. Çünkü saf olmayan altın, bu yolla ateşten geçerek saf altına dönüşür. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bilgelik kalpten gelir. Akılla ilgisi yoktur. Bilgelik, varlığının en derin noktasından çıkar. Kafaya ait değildir. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> İnsan ne söylediğini bilmeli fakat her bildiğini söylememelidir. (Namık Kemal) INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kar taneleri ne güzel anlatıyor, birbirlerine zarar vermeden de yol almanın mümkün olduğunu. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Virgül değilim kimseye eğilmem. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yaşadığın yeri cennet yapamadığın sürece kaçtığın her yer cehennemdir. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hayatınızı kucaklayın, nimetlerinizi sayın ve sahip olmadığınız şeyler hakkında şikayet etmeyin. (Joyce Meyer) INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gerek yok her sözü laf ile beyana. Bir bakış bin söz eder, bakıştan anlayana. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ne kadar hazin bir çağda yaşıyoruz, bir önyargıyı ortadan kaldırmak atomu parçalamaktan daha güç. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yaşamını sadeleştir. Asla yaşamını erteleme. Mutluluk bir yolculuktur. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Siyah neden gökkuşağında olmak istesin ki, gece tamamıyla ona aitken... INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Siyah da beyazın zıddıdır ama yanına en çok o yakışır. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ne kadar iyi bir insan olduğunun önemi yok, nasıl olsa ilk hatanda en kötü insan sen olacaksın! INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> İyilik yapmaya devam et. Karşındaki o iyiliğe layık olmasa bile, sen o iyiliğe layıksın. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Her şeyi denerim, ama yapabildiklerimi yaparım. ( Herman Melville ) INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bir ara insanları anladığımı sandım. Sonra sandığımı anladım. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> İyiler asla kaybetmez, kaybedilir. ( Peyami Safa ) INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kırılmış biri çok güzel susar. Her şeyine hasret kalırsın! INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yaşın değil yaşadıkların öğretir sana hayatı. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> İnsan hep bilmediğinden değil. Bazen bilmediğinden susar. Edep bilir susar, sabır bilir susar ve Saygı bilir susar. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yanıltmasın seni masum bakışlar, bazılarını şeytan ayakta alkışlar... INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yanında olduğum zaman değerimi bilmezsen, değerimi bildiğin gün beni yanında bulamazsın. (Necip Fazıl Kısakürek) INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dürüst olmaktan korkma, kaybedeceğin en fazla yanlış insanlar olur. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> İnsanı farklı yapan, affettikleri, güçlü yapan sabrettikleri, kendisi yapan ise vazgeçtikleridir. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Etkili olmak için çok küçük olduğunuzu düşünüyorsanız, bir sivrisinekle hiç yatağa girmediniz demektir. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Güneş demişken, ellerini çok seviyorum. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Benimle ömür geçer mi ki dedim. "Senle geçirmeye ömür yeter mi?" dedi. İşte buna bir ömür yetti. ( Özdemir Asaf ) INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hayat bazı şeyleri kafana vura vura. Bazı şeyleri de kalbini kıra kıra öğretir... INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Belki de insan her şeyi içine atmaktan boğuluyor zamanla INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hayat gerçekten çok basit ama biz hayatı karmaşık hale getirmek için ısrar ediyoruz. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hayatımı sadece ben değiştirebilirim. Kimse benim için yapamaz. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Her insanın yüreğinin bir yerinde ışık vardır. Hem de pırıl pırıl. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fazla büyütme kendini, en fazla sevebildiğim kadarsın; dahası yok. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yalnız kalma özgürlüğü sarhoş edicidir. (Kangala Ranaut) INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Oysa yüreği temiz olmayanın, anlayışı da kıttır. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yapılacak yığınla hata varken, biz hep aynı hatayı tekrar tekrar yaparız. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mutlu olmayı yarına bırakmak, karşıya geçmek için nehrin durmasını beklemeye
-benzer ve bilirsin o nehir asla durmaz. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bazıları büyük doğar, bazıları büyüklüğü kazanır, bazılarına da büyüklük kendi gelir. INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> İki tür fakir insan vardır. Birlikte fakir olanlar ve yalnız fakir olanlar. Birincisi gerçek 
-fakir diğerleri ise şanssız insanlardır. (Jean-Paul Sartre) INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Affetmek geçmişi değiştirmez ama geleceğin önünü açar. (Paul Boese) INSTAGRAM:@teknolojiaihl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Unutamadığın kişi, daima senden uzakta olandır. (Chuck Palahniuk) INSTAGRAM:@teknolojiaihl</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t xml:space="preserve"> Kalbim bir kuş gibi, hür ve şen şatır. Uçuyordu kanatlar gergin; halatlar gergin ve 
 gemi kayıyordu, ışık saçan güneşin sarhoş ettiği melek, sularda ağır ağır. INSTAGRAM:@teknolojiaihl</t>
@@ -701,7 +435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -718,12 +452,6 @@
       <color rgb="FF464646"/>
       <name val="Times New Roman"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -745,7 +473,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -773,19 +501,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -798,20 +513,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -823,16 +532,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1115,1080 +821,645 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A213"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A38" sqref="A1:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="123.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.9" customHeight="1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.9" customHeight="1">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="42">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="28.2">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="7" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="7" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="7" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="4" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="4" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="1:1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="4" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="4" t="s">
+    <row r="82" spans="1:1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="28.2">
-      <c r="A83" s="6" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="28.2">
-      <c r="A85" s="6" t="s">
+    <row r="85" spans="1:1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="28.2">
-      <c r="A88" s="6" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="1:1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="7" t="s">
+    <row r="91" spans="1:1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="4" t="s">
+    <row r="98" spans="1:1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="4" t="s">
+    <row r="99" spans="1:1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="1:1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="4" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="4" t="s">
+    <row r="106" spans="1:1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="3" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="3" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="3" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="3" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="4" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="5" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="3" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="7" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="3" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="3" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="4" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="4" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="3" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="3" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="3" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="3" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" ht="28.2">
-      <c r="A161" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="28.2">
-      <c r="A165" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" ht="28.2">
-      <c r="A166" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" ht="28.2">
-      <c r="A167" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" ht="28.2">
-      <c r="A169" s="11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" ht="28.2">
-      <c r="A171" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" ht="42">
-      <c r="A172" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" ht="28.2">
-      <c r="A173" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" ht="28.2">
-      <c r="A177" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" ht="28.2">
-      <c r="A178" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="28.2">
-      <c r="A179" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" ht="42">
-      <c r="A185" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" ht="42">
-      <c r="A186" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" ht="28.2">
-      <c r="A188" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" ht="28.2">
-      <c r="A189" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" ht="28.2">
-      <c r="A190" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" ht="42">
-      <c r="A193" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
